--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1807701.33273879</v>
+        <v>1805449.253027583</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.105228319</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>151.7611701629553</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>37.84125266805231</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -820,16 +820,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>86.0414190854971</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>131.3542190999268</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>399.9571464892299</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>17.35112070699669</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>17.25588147840217</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>13.02719212039676</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>93.52676208877571</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>8.296101769923846</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1294,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,10 +1303,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>68.85005436466994</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>21.88617166826039</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1421,7 +1421,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>38.37250637580689</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085812005</v>
+        <v>103.8784673763389</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>55.30088041042054</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>130.732365546955</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>61.44013021076719</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>166.6594061764988</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2369,7 +2369,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2476,13 +2476,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503979</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>18.70843787977262</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520937</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>139.5115415340466</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2846,7 +2846,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>28.75188085812011</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>26.70391688093255</v>
       </c>
     </row>
     <row r="32">
@@ -3187,13 +3187,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>14.92158678358339</v>
+        <v>179.986897510568</v>
       </c>
     </row>
     <row r="35">
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>242.9192109362943</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>87.21471514852939</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>124.4121185570315</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4135,10 +4135,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>45.66054613217656</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2085.807325826219</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C2" t="n">
-        <v>1716.844808885808</v>
+        <v>939.4077790033357</v>
       </c>
       <c r="D2" t="n">
-        <v>1358.579110279057</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="E2" t="n">
-        <v>972.7908576808129</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F2" t="n">
-        <v>561.8049528912054</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>146.7325027362019</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136267</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3215.315153136267</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2862.546497866153</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2862.546497866153</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2472.407165890341</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780106</v>
+        <v>383.3613929424835</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>1337.101066913588</v>
       </c>
       <c r="V4" t="n">
-        <v>1672.610059882606</v>
+        <v>1082.416578707701</v>
       </c>
       <c r="W4" t="n">
-        <v>1383.192889845646</v>
+        <v>792.9994086707405</v>
       </c>
       <c r="X4" t="n">
-        <v>1250.51186045178</v>
+        <v>565.0098577727232</v>
       </c>
       <c r="Y4" t="n">
-        <v>1029.71928130825</v>
+        <v>565.0098577727232</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1175.30093260579</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1175.30093260579</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>817.0352339990397</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>817.0352339990397</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>810.0897332498363</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
@@ -4580,37 +4580,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136267</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W5" t="n">
-        <v>3197.788768583745</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X5" t="n">
-        <v>2824.323010322666</v>
+        <v>1952.040104645724</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>1561.900772669912</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601529</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="C7" t="n">
-        <v>825.351820332246</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199102</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>527.3220873375171</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1909.864364776975</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1718.178480603802</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1496.411865173328</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1207.308998298972</v>
       </c>
       <c r="V7" t="n">
-        <v>1914.135768168901</v>
+        <v>952.6245100930846</v>
       </c>
       <c r="W7" t="n">
-        <v>1624.71859813194</v>
+        <v>663.2073400561239</v>
       </c>
       <c r="X7" t="n">
-        <v>1396.729047233923</v>
+        <v>435.2177891581067</v>
       </c>
       <c r="Y7" t="n">
-        <v>1175.936468090393</v>
+        <v>214.4252100145765</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1311.909787855438</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="C8" t="n">
-        <v>942.9472709150266</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D8" t="n">
-        <v>942.9472709150266</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>942.9472709150266</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>531.9613661254191</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>116.8889159704156</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
         <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
         <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1698.50962791956</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>676.468527222536</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1767.918581386758</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1767.918581386758</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1767.918581386758</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>858.1169920527757</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>858.1169920527757</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>858.1169920527757</v>
       </c>
     </row>
     <row r="11">
@@ -5030,19 +5030,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2408.20297612995</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2225.348141784855</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2005.746676807796</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1716.671450151994</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1461.986961946107</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>951.777212765616</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,10 +5273,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075805</v>
@@ -5285,13 +5285,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,49 +5437,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038327</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5513,10 +5513,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,7 +5531,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>631.7012443408906</v>
+        <v>695.5020655703096</v>
       </c>
       <c r="C19" t="n">
-        <v>631.7012443408906</v>
+        <v>526.5658826424027</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408906</v>
+        <v>526.5658826424027</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>378.6527890600096</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>231.7628415620992</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>231.7628415620992</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5677,46 +5677,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S19" t="n">
-        <v>2314.910189088387</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T19" t="n">
-        <v>2095.308724111328</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U19" t="n">
-        <v>1806.233497455525</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1551.549009249638</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1262.131839212678</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>1034.14228831466</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y19" t="n">
-        <v>813.3497091711304</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="20">
@@ -5744,10 +5744,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5756,13 +5756,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>634.927936255316</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>634.927936255316</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578602</v>
@@ -5947,13 +5947,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1265.358531127103</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1037.368980229086</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>816.5764010855557</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,10 +5975,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400724</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998286</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>194.8007783998286</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6190,7 +6190,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703121</v>
       </c>
     </row>
     <row r="26">
@@ -6209,52 +6209,52 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466572</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703059</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826423991</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300633</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6403,31 +6403,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580255</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487562</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510503</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854701</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648814</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611853</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138361</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703059</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6464,25 +6464,25 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,22 +6537,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400712</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797186</v>
@@ -6664,7 +6664,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>719.5738700011939</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="C34" t="n">
-        <v>550.637687073287</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D34" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
         <v>402.7245934908939</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>901.2223348314336</v>
+        <v>734.4896977334694</v>
       </c>
     </row>
     <row r="35">
@@ -6911,46 +6911,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,31 +7160,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7254,10 +7254,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
         <v>680.0291294438176</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1732.088140170817</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1477.40365196493</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1187.986481927969</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>959.9969310299521</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>739.2043518864219</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,19 +7485,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7603,16 +7603,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7783,19 +7783,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>28.0027403343148</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405078</v>
+        <v>63.36835372228889</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>84.99383243580334</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>50.29392045468958</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>84.99383243580198</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>119.8635921600922</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>46.4596884482299</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>121.5862749664513</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,22 +24598,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>6.922421112522528</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>119.863592160096</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>191.8807364711622</v>
       </c>
     </row>
     <row r="32">
@@ -25075,13 +25075,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>203.6630665685114</v>
+        <v>38.5977558415268</v>
       </c>
     </row>
     <row r="35">
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25457,7 +25457,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25555,19 +25555,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>43.26526345294982</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>15.8825942891924</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,10 +26035,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>878661.5860369784</v>
+        <v>878661.5860369783</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>878661.5860369783</v>
+        <v>878661.5860369782</v>
       </c>
     </row>
     <row r="15">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583916</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583918</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="F2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="G2" t="n">
+        <v>544823.9547907542</v>
+      </c>
+      <c r="H2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="I2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
         <v>544823.9547907538</v>
-      </c>
-      <c r="G2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="H2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="I2" t="n">
-        <v>544823.9547907537</v>
-      </c>
-      <c r="J2" t="n">
-        <v>544823.9547907539</v>
       </c>
       <c r="K2" t="n">
         <v>544823.9547907538</v>
       </c>
       <c r="L2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907535</v>
       </c>
       <c r="M2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.954790754</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907537</v>
       </c>
       <c r="P2" t="n">
         <v>544823.9547907538</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815701</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.010988157</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815708</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26433,7 +26433,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680584</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
         <v>11776.97621680582</v>
@@ -26442,7 +26442,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680585</v>
       </c>
       <c r="L4" t="n">
         <v>11776.97621680582</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-973439.502618752</v>
+        <v>-973439.5026187514</v>
       </c>
       <c r="C6" t="n">
+        <v>355305.2431088414</v>
+      </c>
+      <c r="D6" t="n">
         <v>355305.2431088411</v>
       </c>
-      <c r="D6" t="n">
-        <v>355305.2431088415</v>
-      </c>
       <c r="E6" t="n">
-        <v>106511.9869426859</v>
+        <v>106477.2490172505</v>
       </c>
       <c r="F6" t="n">
-        <v>431924.4487500408</v>
+        <v>431889.7108246055</v>
       </c>
       <c r="G6" t="n">
-        <v>431924.4487500411</v>
+        <v>431889.7108246055</v>
       </c>
       <c r="H6" t="n">
-        <v>431924.448750041</v>
+        <v>431889.7108246051</v>
       </c>
       <c r="I6" t="n">
-        <v>431924.4487500407</v>
+        <v>431889.7108246052</v>
       </c>
       <c r="J6" t="n">
-        <v>214393.2463527634</v>
+        <v>214358.5084273278</v>
       </c>
       <c r="K6" t="n">
-        <v>431924.4487500408</v>
+        <v>431889.7108246051</v>
       </c>
       <c r="L6" t="n">
-        <v>431924.4487500409</v>
+        <v>431889.7108246048</v>
       </c>
       <c r="M6" t="n">
-        <v>346869.4208145295</v>
+        <v>346834.6828890936</v>
       </c>
       <c r="N6" t="n">
-        <v>431924.4487500409</v>
+        <v>431889.7108246054</v>
       </c>
       <c r="O6" t="n">
-        <v>431924.4487500408</v>
+        <v>431889.710824605</v>
       </c>
       <c r="P6" t="n">
-        <v>431924.4487500408</v>
+        <v>431889.7108246051</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>202.9218714577276</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>256.7665117192681</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,19 +27430,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,16 +27540,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>200.1704191201158</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>94.3554362891104</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>10.96457916422355</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>331.8898480104163</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>71.67627119164516</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>239.1104512034312</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>289.2070795747048</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.3116626173966</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,10 +28023,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28059,25 +28059,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>120.918970966772</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>264.6368266683306</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29089,7 +29089,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29262,7 +29262,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
     </row>
     <row r="26">
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29475,7 +29475,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29673,7 +29673,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-3.770613451100265e-12</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
@@ -31847,22 +31847,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>189.0011860883002</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,13 +32072,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305194</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,19 +32087,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,13 +32546,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32731,7 +32731,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
         <v>125.31755462929</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,25 +32792,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>272.7569329364655</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32956,7 +32956,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
         <v>926.5868626460027</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33029,10 +33029,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>269.1634560719508</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,25 +33257,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>452.8027404478649</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33418,7 +33418,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33500,7 +33500,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305194</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33658,7 +33658,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,13 +33746,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>375.1407109807906</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33895,7 +33895,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33974,13 +33974,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>393.3904345522228</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34217,10 +34217,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>752.2150000824579</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34375,7 +34375,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -35495,22 +35495,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>57.65947400496688</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561604</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,19 +35735,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35805,7 +35805,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096333</v>
       </c>
       <c r="L16" t="n">
         <v>394.3420143191314</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36045,7 +36045,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191298</v>
       </c>
       <c r="M19" t="n">
         <v>426.2724270010451</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36376,10 +36376,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>134.2025531565913</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36604,7 +36604,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36677,10 +36677,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>127.0294221499325</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36771,7 +36771,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998936</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402482</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>310.2064960034205</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561604</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,13 +37394,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>243.7989988974573</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37865,10 +37865,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>620.8732879991246</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -38023,7 +38023,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
